--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering -Dennis Kloster.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering -Dennis Kloster.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -210,7 +210,37 @@
     <t>AktivitetsDiagram</t>
   </si>
   <si>
-    <t>(Hour:Minutes)</t>
+    <t xml:space="preserve">Review operationskontrakt UC4 </t>
+  </si>
+  <si>
+    <t>Review testSuite OC5</t>
+  </si>
+  <si>
+    <t>Milepæl for iteration 3</t>
+  </si>
+  <si>
+    <t>(Hours:Minutes)</t>
+  </si>
+  <si>
+    <t>Review operationskontrakt OC5</t>
+  </si>
+  <si>
+    <t>ProjektLeder</t>
+  </si>
+  <si>
+    <t>OC9 beregn SF</t>
+  </si>
+  <si>
+    <t>Review OC10</t>
+  </si>
+  <si>
+    <t>Review OC12 getSF</t>
+  </si>
+  <si>
+    <t>Tid i alt</t>
+  </si>
+  <si>
+    <t>Review OC14</t>
   </si>
 </sst>
 </file>
@@ -585,7 +615,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +653,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -671,7 +701,7 @@
         <v>0.4375</v>
       </c>
       <c r="I4" s="5">
-        <f>H4-G4</f>
+        <f t="shared" ref="I4:I8" si="0">H4-G4</f>
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
@@ -695,7 +725,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="I5" s="5">
-        <f>H5-G5</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
@@ -719,7 +749,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="I6" s="5">
-        <f>H6-G6</f>
+        <f t="shared" si="0"/>
         <v>2.777777777777779E-2</v>
       </c>
     </row>
@@ -728,36 +758,87 @@
       <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="I7" s="5">
-        <f>H7-G7</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.7777777777777679E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="A8" s="1">
+        <v>42809</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.35416666666666669</v>
+      </c>
       <c r="I8" s="5">
-        <f>H8-G8</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.38541666666666669</v>
+      </c>
       <c r="I9" s="5">
         <f>H9-G9</f>
-        <v>0</v>
+        <v>2.430555555555558E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I10" s="5">
+        <f>H10-G10</f>
+        <v>2.083333333333337E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -765,47 +846,148 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="A12" s="1">
+        <v>42811</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I12" s="5">
+        <f>H12-G12</f>
+        <v>0.20486111111111105</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="I13" s="5">
+        <f>H13-G13</f>
+        <v>3.125E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="G14" s="5"/>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="I14" s="5">
+        <f>H14-G14</f>
+        <v>1.388888888888884E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.40625</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="I15" s="5">
+        <f>H15-G15</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="I16" s="5">
+        <f>H16-G16</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="5">
+        <f>SUM(I4:I16)</f>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
   </sheetData>
@@ -813,7 +995,7 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E104 E3:E7">
       <formula1>GyldigeRoller</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering -Dennis Kloster.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering -Dennis Kloster.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>Review OC14</t>
+  </si>
+  <si>
+    <t>DomænemodelSamling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -615,7 +621,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,6 +632,7 @@
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" customWidth="1"/>
     <col min="6" max="6" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="31.7109375" customWidth="1"/>
   </cols>
@@ -960,10 +967,34 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>42815</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="I17" s="5">
+        <f>H17-G17</f>
+        <v>7.2916666666666741E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -971,8 +1002,8 @@
         <v>68</v>
       </c>
       <c r="I19" s="5">
-        <f>SUM(I4:I16)</f>
-        <v>0.49999999999999994</v>
+        <f>SUM(I4:I17)</f>
+        <v>0.57291666666666674</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering -Dennis Kloster.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering -Dennis Kloster.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -246,7 +246,7 @@
     <t>DomænemodelSamling</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Review af kodeOC14</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +872,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="I12" s="5">
-        <f>H12-G12</f>
+        <f t="shared" ref="I12:I18" si="1">H12-G12</f>
         <v>0.20486111111111105</v>
       </c>
     </row>
@@ -896,7 +896,7 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="I13" s="5">
-        <f>H13-G13</f>
+        <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
     </row>
@@ -918,7 +918,7 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="I14" s="5">
-        <f>H14-G14</f>
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-2</v>
       </c>
     </row>
@@ -940,7 +940,7 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="I15" s="5">
-        <f>H15-G15</f>
+        <f t="shared" si="1"/>
         <v>1.3888888888888895E-2</v>
       </c>
     </row>
@@ -962,7 +962,7 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="I16" s="5">
-        <f>H16-G16</f>
+        <f t="shared" si="1"/>
         <v>1.0416666666666685E-2</v>
       </c>
     </row>
@@ -986,34 +986,52 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="I17" s="5">
-        <f>H17-G17</f>
+        <f t="shared" si="1"/>
         <v>7.2916666666666741E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="H18" t="s">
+      <c r="A18" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
         <v>71</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="1"/>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="H19" s="4" t="s">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="H22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I22" s="5">
         <f>SUM(I4:I17)</f>
         <v>0.57291666666666674</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
